--- a/Material Properties.xlsx
+++ b/Material Properties.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daz Standard Material" sheetId="1" r:id="rId1"/>
     <sheet name="Max Standard Material" sheetId="2" r:id="rId2"/>
+    <sheet name="mr Arch &amp; Design" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="489">
   <si>
     <t>GlossinessValueMap</t>
   </si>
@@ -708,6 +709,780 @@
   </si>
   <si>
     <t>Diffuse Colour is multiplied with Diffuse Map (if present) and Diffuse Strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diffuse) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fRGBA color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_rough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diffuse_Roughness) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diffuse_Weight) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_gloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Glossiness) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Samples) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_interp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Interpolation) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_hlonly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Highlights_Only) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Metallic_Reflections) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflectivity) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_gloss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Glossiness) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Samples) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_interp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Interpolation) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_ior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_IOR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Transparency) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_trans_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translulcency_Weight) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisotropy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisoangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Angle) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  aniso_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Mode) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  aniso_channel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Channel) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_func_fresnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Angular_Function_Fresnel) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_func_low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Angular_Function_Low) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_func_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Angular_Function_High) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_func_curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Angular_Function_Curve) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Max_Dist_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Max_Dist) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_color_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Max_Dist_Color_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Max_Dist_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_refl_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Max_Depth) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Cutoff_Threshold) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Max_Dist_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Max_Dist) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_color_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Max_Dist_Color_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Max_Dist_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_refr_depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Max_Depth) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_cutoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Cutoff_Threshold) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_indirect_multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Indirect_Multiplier) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_fg_quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FG_Quality) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  inter_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Interpolation_Density) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  intr_refl_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection__Interpolation_points_to_look_up) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  intr_refl_ddist_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Use_detail_distance) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  intr_refl_ddist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Detail_distance) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  intr_refr_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction__Interpolation_points_to_look_up) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  single_env_sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Single_Environment_Sample) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_round_corners_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Round_Corners_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_round_corners_radius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Round_Corners_Radius) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_round_corners_any_mtl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Fillet_against_Any_Material) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Enabled) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_exact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_picks_up_colors_from_other_materials__Exact_AO) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_use_global_ambient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Use_Global_Ambient_Light) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Samples) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Distance) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Shadow_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_ambient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Ambient_Light_Color) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_ao_do_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_for_GI_FG_detail_enhancement) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_no_area_hl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Supress_Highlights_for_visible_area_lights) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_1sided</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Single_sided_glass___translucency) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_do_refractive_caustics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Do_refractive_caustics) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_skip_inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Skip_internal_reflections_in_glass__except_TIR) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_hl_to_refl_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Highlight_vs__Reflection_Balance) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_backface_cull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Back_Face_Culling) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  opts_propagate_alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Propagate_Alpha) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_color_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Color_Mode) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_int_mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Intensity_Mode) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_color_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_color_kelvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Color_Kelvin) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_int_physical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Physical_Intensity) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_int_arbitrary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Arbitrary_Intensity) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_in_reflections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination___visible_in_Reflections) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_in_fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination___visible_to_FG) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  no_diffuse_bump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(No_bumps_on_diffuse_shading) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diffuse_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_rough_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Roughness_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_gloss_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Glossiness_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_gloss_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Glossiness_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_ior_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IOR_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transc_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transw_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_Weight_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisotropy_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisoangle_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Angle_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Fade_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Fade_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  indirect_multiplier_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FG_Multiplier_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fg_quality_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ao_dark_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Shadow_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ao_ambient_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Ambient_Light_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bump_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  displacement_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cutout_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  environment_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  add_color_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Additional_Color_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  radius_map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Self_Illumination_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Diffuse_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  diff_rough_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Roughness_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_gloss_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Glossiness_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_gloss_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Glossiness_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_ior_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(IOR_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transc_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_transw_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Translucency_Weight_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisotropy_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  anisoangle_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Angle_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refl_falloff_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reflection_Fade_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  refr_falloff_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Refraction_Fade_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  indirect_multiplier_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FG_Multiplier_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fg_quality_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ao_dark_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Shadow_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ao_ambient_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(AO_Ambient_Light_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bump_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  displacement_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cutout_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  environment_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  add_color_map_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Additional_Color_Map_On) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  radius_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  self_illum_map_on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fg_quality_map_amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FG_Quality_Map_Amount) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  bump_map_amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Bump_Map_Amount) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  displacement_map_amt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Displacement_Map_Amount) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Anisotropy_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FG_Quality_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Radius_Map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mapM23</t>
   </si>
 </sst>
 </file>
@@ -803,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -816,6 +1591,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,8 +2455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2542,4 +3318,1587 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Material Properties.xlsx
+++ b/Material Properties.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="13395" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Daz Standard Material" sheetId="1" r:id="rId1"/>
     <sheet name="Max Standard Material" sheetId="2" r:id="rId2"/>
     <sheet name="mr Arch &amp; Design" sheetId="3" r:id="rId3"/>
+    <sheet name="Glossiness Map" sheetId="4" r:id="rId4"/>
+    <sheet name="Colour Map" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="496">
   <si>
     <t>GlossinessValueMap</t>
   </si>
@@ -1483,6 +1485,27 @@
   </si>
   <si>
     <t xml:space="preserve">  mapM23</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Daz</t>
+  </si>
+  <si>
+    <t>Reflectivity</t>
+  </si>
+  <si>
+    <t>Glossiness</t>
+  </si>
+  <si>
+    <t>0 deg. Reflection</t>
+  </si>
+  <si>
+    <t>90 deg. Reflection</t>
+  </si>
+  <si>
+    <t>Curve shape</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1592,6 +1615,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3324,8 +3348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4901,4 +4925,5150 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.6</v>
+      </c>
+      <c r="D5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="E6">
+        <v>0.1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <v>0.45</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.45</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0.2</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F257"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>LOOKUP(D2,$B$2:$B$257,$A$2:$A$257)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>((D2/255)^(2.2))*255</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">LOOKUP(D3,$B$2:$B$257,$A$2:$A$257)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">((D3/255)^(2.2))*255</f>
+        <v>1.2946482346687486E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.9486411898552185E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1.451505025660923E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.7332777397017179E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.4656614263271797E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6.669365740986527E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9.3619748803065381E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.12558846573381535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.16273662475259065</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.20518791737582984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>61</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.25305544753895298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.30644357822179252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.36544932036632533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>68</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.43016340578126744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.50067113441609978</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.57705305598014034</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>74</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.65938552703971276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.74774117260428274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.84218927316092829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.94279609261953246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>1.0496251587871024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>1.1627375052441353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>85</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>1.2821918814981617</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.4080449368111134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.5403513819867032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1.6791641325583297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>92</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>1.8245344361661224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1.9765119864034544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2.1351450250128887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2.3004804339930933</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>98</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>2.4725638189228474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>2.6514395846015972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>101</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.8371510039377275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>102</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>3.0297402808774847</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>103</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>3.2292486080534371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>105</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>3.4357162197363751</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>106</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>3.6491824405954363</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>107</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>3.869685730704425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>109</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>4.0972637271761529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>110</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>4.3319532827587617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>4.5737905016873102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>112</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>4.8228107730489835</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>114</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>5.0790488018903597</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>115</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>5.3425386382691791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>5.6133137044308175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>117</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>5.8914068202699683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>118</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>6.1768502272212302</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>119</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>6.469675610707319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>120</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>6.7699141212605918</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>122</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>7.0775963944221392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>123</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>7.3927525695124938</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>7.7154123073591085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>125</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>8.0456048070577442</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>126</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>8.3833588218378754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>127</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>8.7287026740958957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>128</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>9.0816642696542864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>129</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>9.4422711112998492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>130</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>9.8105503116496298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>131</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>10.186528605389025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>132</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>10.57023236092293</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>133</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>10.961687591477565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>134</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>11.360919965687454</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>135</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>11.767954817699492</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>136</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>12.182817156823514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="2">LOOKUP(D67,$B$2:$B$257,$A$2:$A$257)</f>
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="3">((D67/255)^(2.2))*255</f>
+        <v>12.605531676756529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>138</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>13.03612276440581</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>139</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>13.474614508334151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>140</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>13.921030706848883</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>141</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>14.375394875754836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>142</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>14.837730255789783</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>143</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>15.308059819759871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>144</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>15.786406279391212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>144</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>16.272792091912699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>145</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>16.767239466384176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>146</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>17.269770369783203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>147</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>17.780406532862692</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>148</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>18.299169455790963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>149</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>18.826080413585075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>150</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>19.36116046134752</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>151</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>19.904430439315984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>151</v>
+      </c>
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>20.455910977734835</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>152</v>
+      </c>
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>21.015622501557111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>153</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>21.583585234984511</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>154</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>22.159819205853378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>155</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>22.744344249873194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>156</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>23.337180014724467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>156</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>23.938345964022332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>157</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>24.547861381151627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>158</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>25.165745372979078</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>159</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>25.792016873447974</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>160</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>26.426694647060032</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>160</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>27.069797292249703</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>161</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>27.721343244654832</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>162</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>28.381350780288361</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>163</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>29.049838018614842</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>164</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>29.726822925535746</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>164</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>30.412323316287093</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>165</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>31.10635685825298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>166</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>31.808941073698076</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>167</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>32.520093342422641</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>167</v>
+      </c>
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>33.239830904342305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>168</v>
+      </c>
+      <c r="D104">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>33.968170861996427</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>169</v>
+      </c>
+      <c r="D105">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>34.705130182986629</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>170</v>
+      </c>
+      <c r="D106">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>35.450725702349139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>170</v>
+      </c>
+      <c r="D107">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>36.204974124862559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>171</v>
+      </c>
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>36.967892027293878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>172</v>
+      </c>
+      <c r="D109">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>37.739495860584718</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>173</v>
+      </c>
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>38.519801951980206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>173</v>
+      </c>
+      <c r="D111">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>39.308826507102118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>174</v>
+      </c>
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>40.106585611968718</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>175</v>
+      </c>
+      <c r="D113">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>40.913095234962597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>175</v>
+      </c>
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>41.728371228748919</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>176</v>
+      </c>
+      <c r="D115">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>42.552429332145202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>177</v>
+      </c>
+      <c r="D116">
+        <v>114</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>43.385285171944659</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>178</v>
+      </c>
+      <c r="D117">
+        <v>115</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>44.226954264694434</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>178</v>
+      </c>
+      <c r="D118">
+        <v>116</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>45.077452018430336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>179</v>
+      </c>
+      <c r="D119">
+        <v>117</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>45.936793734369537</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>180</v>
+      </c>
+      <c r="D120">
+        <v>118</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>46.80499460856246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>181</v>
+      </c>
+      <c r="D121">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>47.68206973350528</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>181</v>
+      </c>
+      <c r="D122">
+        <v>120</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>48.568034099714374</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>182</v>
+      </c>
+      <c r="D123">
+        <v>121</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>49.462902597263742</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>182</v>
+      </c>
+      <c r="D124">
+        <v>122</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>50.36669001728675</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>183</v>
+      </c>
+      <c r="D125">
+        <v>123</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>51.279411053443148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>184</v>
+      </c>
+      <c r="D126">
+        <v>124</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>52.20108030335259</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>184</v>
+      </c>
+      <c r="D127">
+        <v>125</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>53.131712269995688</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>185</v>
+      </c>
+      <c r="D128">
+        <v>126</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>54.071321363083364</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>186</v>
+      </c>
+      <c r="D129">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>55.019921900395723</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>186</v>
+      </c>
+      <c r="D130">
+        <v>128</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>55.97752810909131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>187</v>
+      </c>
+      <c r="D131">
+        <v>129</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="4">LOOKUP(D131,$B$2:$B$257,$A$2:$A$257)</f>
+        <v>57</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="5">((D131/255)^(2.2))*255</f>
+        <v>56.944154126987492</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>188</v>
+      </c>
+      <c r="D132">
+        <v>130</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="5"/>
+        <v>57.919814003812974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>188</v>
+      </c>
+      <c r="D133">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>58.904521702433193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>189</v>
+      </c>
+      <c r="D134">
+        <v>132</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>59.898291100049448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>190</v>
+      </c>
+      <c r="D135">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>60.901135989372314</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>190</v>
+      </c>
+      <c r="D136">
+        <v>134</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>61.913070079770499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>191</v>
+      </c>
+      <c r="D137">
+        <v>135</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>62.934106998395364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>192</v>
+      </c>
+      <c r="D138">
+        <v>136</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>63.964260291282102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>192</v>
+      </c>
+      <c r="D139">
+        <v>137</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>65.003543424428202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>193</v>
+      </c>
+      <c r="D140">
+        <v>138</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>66.051969784849561</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>194</v>
+      </c>
+      <c r="D141">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>67.109552681615355</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>194</v>
+      </c>
+      <c r="D142">
+        <v>140</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>68.176305346861852</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>195</v>
+      </c>
+      <c r="D143">
+        <v>141</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>69.25224093678564</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>195</v>
+      </c>
+      <c r="D144">
+        <v>142</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>70.337372532617508</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>196</v>
+      </c>
+      <c r="D145">
+        <v>143</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>71.431713141576651</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>197</v>
+      </c>
+      <c r="D146">
+        <v>144</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>72.535275697806256</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>198</v>
+      </c>
+      <c r="D147">
+        <v>145</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>73.648073063290738</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>198</v>
+      </c>
+      <c r="D148">
+        <v>146</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>74.770118028755505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>199</v>
+      </c>
+      <c r="D149">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>75.90142331454885</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>199</v>
+      </c>
+      <c r="D150">
+        <v>148</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>77.04200157150747</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+      <c r="D151">
+        <v>149</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>78.191865381805187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+      <c r="D152">
+        <v>150</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>79.351027259786008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>201</v>
+      </c>
+      <c r="D153">
+        <v>151</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>80.519499652781249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>202</v>
+      </c>
+      <c r="D154">
+        <v>152</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>81.69729494191165</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>202</v>
+      </c>
+      <c r="D155">
+        <v>153</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>82.884425442874445</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>203</v>
+      </c>
+      <c r="D156">
+        <v>154</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>84.080903406716288</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>203</v>
+      </c>
+      <c r="D157">
+        <v>155</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>85.286741020591762</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>204</v>
+      </c>
+      <c r="D158">
+        <v>156</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>86.501950408508321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>205</v>
+      </c>
+      <c r="D159">
+        <v>157</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>87.726543632057641</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>205</v>
+      </c>
+      <c r="D160">
+        <v>158</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>88.960532691134148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>206</v>
+      </c>
+      <c r="D161">
+        <v>159</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>90.203929524640529</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>206</v>
+      </c>
+      <c r="D162">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>91.456746011180712</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>207</v>
+      </c>
+      <c r="D163">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>92.718993969741064</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>207</v>
+      </c>
+      <c r="D164">
+        <v>162</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>93.990685160359206</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>208</v>
+      </c>
+      <c r="D165">
+        <v>163</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>95.271831284781499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>209</v>
+      </c>
+      <c r="D166">
+        <v>164</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>96.56244398710929</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>209</v>
+      </c>
+      <c r="D167">
+        <v>165</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>97.862534854433676</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>210</v>
+      </c>
+      <c r="D168">
+        <v>166</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>99.172115417460006</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>210</v>
+      </c>
+      <c r="D169">
+        <v>167</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>100.49119715112138</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>211</v>
+      </c>
+      <c r="D170">
+        <v>168</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>101.81979147518196</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>212</v>
+      </c>
+      <c r="D171">
+        <v>169</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>103.15790975483027</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>212</v>
+      </c>
+      <c r="D172">
+        <v>170</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>104.50556330126246</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>213</v>
+      </c>
+      <c r="D173">
+        <v>171</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>105.86276337225615</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>213</v>
+      </c>
+      <c r="D174">
+        <v>172</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>107.22952117273472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>214</v>
+      </c>
+      <c r="D175">
+        <v>173</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>108.60584785532215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>214</v>
+      </c>
+      <c r="D176">
+        <v>174</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>109.99175452088946</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>215</v>
+      </c>
+      <c r="D177">
+        <v>175</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>111.38725221909165</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>215</v>
+      </c>
+      <c r="D178">
+        <v>176</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>112.79235194889647</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>216</v>
+      </c>
+      <c r="D179">
+        <v>177</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>114.20706465910455</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>217</v>
+      </c>
+      <c r="D180">
+        <v>178</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>115.63140124886128</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>217</v>
+      </c>
+      <c r="D181">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>117.06537256816083</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>218</v>
+      </c>
+      <c r="D182">
+        <v>180</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>118.50898941834184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>218</v>
+      </c>
+      <c r="D183">
+        <v>181</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>119.96226255257569</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>219</v>
+      </c>
+      <c r="D184">
+        <v>182</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>121.42520267634725</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>219</v>
+      </c>
+      <c r="D185">
+        <v>183</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>122.89782044792794</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>220</v>
+      </c>
+      <c r="D186">
+        <v>184</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>124.3801264788417</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>220</v>
+      </c>
+      <c r="D187">
+        <v>185</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>125.87213133432378</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>221</v>
+      </c>
+      <c r="D188">
+        <v>186</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>127.37384553377269</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>221</v>
+      </c>
+      <c r="D189">
+        <v>187</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="4"/>
+        <v>129</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="5"/>
+        <v>128.88527955119508</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>222</v>
+      </c>
+      <c r="D190">
+        <v>188</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="4"/>
+        <v>131</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="5"/>
+        <v>130.40644381564422</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>223</v>
+      </c>
+      <c r="D191">
+        <v>189</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="5"/>
+        <v>131.93734871165174</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>223</v>
+      </c>
+      <c r="D192">
+        <v>190</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="4"/>
+        <v>134</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="5"/>
+        <v>133.4780045796528</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>224</v>
+      </c>
+      <c r="D193">
+        <v>191</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="5"/>
+        <v>135.02842171640569</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>224</v>
+      </c>
+      <c r="D194">
+        <v>192</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="4"/>
+        <v>137</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="5"/>
+        <v>136.58861037540424</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>225</v>
+      </c>
+      <c r="D195">
+        <v>193</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E257" si="6">LOOKUP(D195,$B$2:$B$257,$A$2:$A$257)</f>
+        <v>138</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F257" si="7">((D195/255)^(2.2))*255</f>
+        <v>138.15858076728492</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>194</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="7"/>
+        <v>139.73834306022783</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>226</v>
+      </c>
+      <c r="D197">
+        <v>195</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="7"/>
+        <v>141.32790738035172</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>226</v>
+      </c>
+      <c r="D198">
+        <v>196</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="6"/>
+        <v>143</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="7"/>
+        <v>142.9272838121037</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>227</v>
+      </c>
+      <c r="D199">
+        <v>197</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="7"/>
+        <v>144.5364823986427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>227</v>
+      </c>
+      <c r="D200">
+        <v>198</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="7"/>
+        <v>146.15551314221844</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>228</v>
+      </c>
+      <c r="D201">
+        <v>199</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="7"/>
+        <v>147.78438600454393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>228</v>
+      </c>
+      <c r="D202">
+        <v>200</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="7"/>
+        <v>149.42311090716365</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>229</v>
+      </c>
+      <c r="D203">
+        <v>201</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="6"/>
+        <v>151</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="7"/>
+        <v>151.0716977318159</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>229</v>
+      </c>
+      <c r="D204">
+        <v>202</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="6"/>
+        <v>153</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="7"/>
+        <v>152.73015632079051</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>230</v>
+      </c>
+      <c r="D205">
+        <v>203</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="7"/>
+        <v>154.39849647728133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>230</v>
+      </c>
+      <c r="D206">
+        <v>204</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="7"/>
+        <v>156.07672796573405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>231</v>
+      </c>
+      <c r="D207">
+        <v>205</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="7"/>
+        <v>157.76486051218879</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>231</v>
+      </c>
+      <c r="D208">
+        <v>206</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="7"/>
+        <v>159.46290380461878</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>232</v>
+      </c>
+      <c r="D209">
+        <v>207</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="6"/>
+        <v>162</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="7"/>
+        <v>161.17086749326356</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>232</v>
+      </c>
+      <c r="D210">
+        <v>208</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="6"/>
+        <v>163</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="7"/>
+        <v>162.88876119095829</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>233</v>
+      </c>
+      <c r="D211">
+        <v>209</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="7"/>
+        <v>164.61659447345829</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>233</v>
+      </c>
+      <c r="D212">
+        <v>210</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="6"/>
+        <v>167</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="7"/>
+        <v>166.35437687975937</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>234</v>
+      </c>
+      <c r="D213">
+        <v>211</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="7"/>
+        <v>168.10211791241377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>234</v>
+      </c>
+      <c r="D214">
+        <v>212</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="6"/>
+        <v>170</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="7"/>
+        <v>169.85982703784197</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>235</v>
+      </c>
+      <c r="D215">
+        <v>213</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="7"/>
+        <v>171.62751368664019</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>235</v>
+      </c>
+      <c r="D216">
+        <v>214</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="7"/>
+        <v>173.40518725388435</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>236</v>
+      </c>
+      <c r="D217">
+        <v>215</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="6"/>
+        <v>176</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="7"/>
+        <v>175.19285709942935</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>236</v>
+      </c>
+      <c r="D218">
+        <v>216</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="7"/>
+        <v>176.99053254820495</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>237</v>
+      </c>
+      <c r="D219">
+        <v>217</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="6"/>
+        <v>179</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="7"/>
+        <v>178.79822289050753</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>237</v>
+      </c>
+      <c r="D220">
+        <v>218</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="6"/>
+        <v>181</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="7"/>
+        <v>180.61593738228822</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>238</v>
+      </c>
+      <c r="D221">
+        <v>219</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="6"/>
+        <v>183</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="7"/>
+        <v>182.44368524543734</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>238</v>
+      </c>
+      <c r="D222">
+        <v>220</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="6"/>
+        <v>185</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="7"/>
+        <v>184.2814756680649</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>239</v>
+      </c>
+      <c r="D223">
+        <v>221</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="7"/>
+        <v>186.129317804778</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>239</v>
+      </c>
+      <c r="D224">
+        <v>222</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="6"/>
+        <v>188</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="7"/>
+        <v>187.9872207769543</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>240</v>
+      </c>
+      <c r="D225">
+        <v>223</v>
+      </c>
+      <c r="E225">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="7"/>
+        <v>189.85519367301231</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>240</v>
+      </c>
+      <c r="D226">
+        <v>224</v>
+      </c>
+      <c r="E226">
+        <f t="shared" si="6"/>
+        <v>192</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="7"/>
+        <v>191.73324554867798</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>241</v>
+      </c>
+      <c r="D227">
+        <v>225</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="7"/>
+        <v>193.62138542724824</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>241</v>
+      </c>
+      <c r="D228">
+        <v>226</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="7"/>
+        <v>195.51962229985114</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>242</v>
+      </c>
+      <c r="D229">
+        <v>227</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="7"/>
+        <v>197.4279651257026</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>242</v>
+      </c>
+      <c r="D230">
+        <v>228</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="7"/>
+        <v>199.34642283236039</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>243</v>
+      </c>
+      <c r="D231">
+        <v>229</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="6"/>
+        <v>202</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="7"/>
+        <v>201.2750043159744</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>243</v>
+      </c>
+      <c r="D232">
+        <v>230</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="6"/>
+        <v>204</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="7"/>
+        <v>203.21371844153441</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>244</v>
+      </c>
+      <c r="D233">
+        <v>231</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="6"/>
+        <v>206</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="7"/>
+        <v>205.16257404311457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>244</v>
+      </c>
+      <c r="D234">
+        <v>232</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="7"/>
+        <v>207.12157992411483</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>245</v>
+      </c>
+      <c r="D235">
+        <v>233</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="7"/>
+        <v>209.09074485749963</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>245</v>
+      </c>
+      <c r="D236">
+        <v>234</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="7"/>
+        <v>211.07007758603359</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>246</v>
+      </c>
+      <c r="D237">
+        <v>235</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="7"/>
+        <v>213.05958682251443</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>246</v>
+      </c>
+      <c r="D238">
+        <v>236</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="7"/>
+        <v>215.05928125000318</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>247</v>
+      </c>
+      <c r="D239">
+        <v>237</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="6"/>
+        <v>218</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="7"/>
+        <v>217.06916952205131</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>247</v>
+      </c>
+      <c r="D240">
+        <v>238</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="7"/>
+        <v>219.08926026292573</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>248</v>
+      </c>
+      <c r="D241">
+        <v>239</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="6"/>
+        <v>222</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="7"/>
+        <v>221.11956206783071</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>248</v>
+      </c>
+      <c r="D242">
+        <v>240</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="6"/>
+        <v>224</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="7"/>
+        <v>223.16008350312725</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>249</v>
+      </c>
+      <c r="D243">
+        <v>241</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="6"/>
+        <v>226</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="7"/>
+        <v>225.21083310655004</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>249</v>
+      </c>
+      <c r="D244">
+        <v>242</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="7"/>
+        <v>227.27181938742177</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>249</v>
+      </c>
+      <c r="D245">
+        <v>243</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="7"/>
+        <v>229.34305082686501</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>250</v>
+      </c>
+      <c r="D246">
+        <v>244</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="7"/>
+        <v>231.42453587801157</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>250</v>
+      </c>
+      <c r="D247">
+        <v>245</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="7"/>
+        <v>233.51628296620945</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>251</v>
+      </c>
+      <c r="D248">
+        <v>246</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="6"/>
+        <v>236</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="7"/>
+        <v>235.61830048922766</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>251</v>
+      </c>
+      <c r="D249">
+        <v>247</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="6"/>
+        <v>238</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="7"/>
+        <v>237.73059681745841</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>252</v>
+      </c>
+      <c r="D250">
+        <v>248</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="7"/>
+        <v>239.85318029411704</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>252</v>
+      </c>
+      <c r="D251">
+        <v>249</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="7"/>
+        <v>241.98605923543977</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>253</v>
+      </c>
+      <c r="D252">
+        <v>250</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="7"/>
+        <v>244.12924193087932</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>253</v>
+      </c>
+      <c r="D253">
+        <v>251</v>
+      </c>
+      <c r="E253">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="7"/>
+        <v>246.28273664329819</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>254</v>
+      </c>
+      <c r="D254">
+        <v>252</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="6"/>
+        <v>249</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="7"/>
+        <v>248.44655160915963</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>254</v>
+      </c>
+      <c r="D255">
+        <v>253</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="6"/>
+        <v>251</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="7"/>
+        <v>250.62069503871678</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>255</v>
+      </c>
+      <c r="D256">
+        <v>254</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="6"/>
+        <v>253</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="7"/>
+        <v>252.80517511619968</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>255</v>
+      </c>
+      <c r="D257">
+        <v>255</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="7"/>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>